--- a/mosip_master/xlsx/doc_type.xlsx
+++ b/mosip_master/xlsx/doc_type.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$86</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$45</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="37">
   <si>
     <t>lang_code</t>
   </si>
@@ -47,202 +47,100 @@
     <t>is_active</t>
   </si>
   <si>
-    <t xml:space="preserve">eng </t>
+    <t>eng</t>
+  </si>
+  <si>
+    <t>CIN</t>
+  </si>
+  <si>
+    <t>Reference Identity Card</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                         TRUE</t>
   </si>
   <si>
     <t>RNC</t>
   </si>
   <si>
-    <t>Rental Contract</t>
+    <t>Rental contract</t>
   </si>
   <si>
     <t>Rental Agreement of address</t>
   </si>
   <si>
-    <t>TRUE</t>
-  </si>
-  <si>
-    <t>PAN</t>
+    <t>COR</t>
+  </si>
+  <si>
+    <t>Certificate of residence</t>
+  </si>
+  <si>
+    <t>Proof of Resident</t>
+  </si>
+  <si>
+    <t>DOC001</t>
+  </si>
+  <si>
+    <t>Passport</t>
+  </si>
+  <si>
+    <t>Proof of Idendity</t>
+  </si>
+  <si>
+    <t>COB</t>
+  </si>
+  <si>
+    <t>Certificate of Birth</t>
+  </si>
+  <si>
+    <t>Proof birth and age of a person</t>
+  </si>
+  <si>
+    <t>COE</t>
+  </si>
+  <si>
+    <t>Certification of Exception</t>
+  </si>
+  <si>
+    <t>Certificate of Exception</t>
+  </si>
+  <si>
+    <t>DOC002</t>
   </si>
   <si>
     <t>PAN card</t>
   </si>
   <si>
-    <t>PAS</t>
-  </si>
-  <si>
-    <t>Passport</t>
-  </si>
-  <si>
-    <t>Proof of Idendity</t>
-  </si>
-  <si>
-    <t>EOP</t>
-  </si>
-  <si>
-    <t>Exception Photo</t>
-  </si>
-  <si>
-    <t>COR</t>
+    <t>DOC004</t>
+  </si>
+  <si>
+    <t>Voter Identification card</t>
+  </si>
+  <si>
+    <t>DOC005</t>
+  </si>
+  <si>
+    <t>Driving licence of the applicant</t>
+  </si>
+  <si>
+    <t>DOC006</t>
+  </si>
+  <si>
+    <t>Photo identification cards issued by the Government</t>
+  </si>
+  <si>
+    <t>DOC007</t>
+  </si>
+  <si>
+    <t>Service photo ID cards that is issued by a PSU</t>
+  </si>
+  <si>
+    <t>CRN</t>
   </si>
   <si>
     <t>Certificate of Relationship</t>
   </si>
   <si>
     <t xml:space="preserve">Proof of relationship </t>
-  </si>
-  <si>
-    <t>eng</t>
-  </si>
-  <si>
-    <t>Expetion Photo</t>
-  </si>
-  <si>
-    <t>ara</t>
-  </si>
-  <si>
-    <t>DOC002</t>
-  </si>
-  <si>
-    <t>بطاقة الطعام</t>
-  </si>
-  <si>
-    <t>DOC003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">إما بطاقة تموينية أو بطاقة صور </t>
-  </si>
-  <si>
-    <t>إما بطاقة تموينية أو بطاقة صور PDS</t>
-  </si>
-  <si>
-    <t>DOC004</t>
-  </si>
-  <si>
-    <t>بطاقة هوية الناخب</t>
-  </si>
-  <si>
-    <t>DOC005</t>
-  </si>
-  <si>
-    <t>رخصة القيادة لمقدم الطلب</t>
-  </si>
-  <si>
-    <t>DOC006</t>
-  </si>
-  <si>
-    <t>بطاقات هوية مصورة صادرة عن الحكومة</t>
-  </si>
-  <si>
-    <t>DOC007</t>
-  </si>
-  <si>
-    <t>بطاقات هوية تحمل صورة الخدمة الصادرة عن PSU</t>
-  </si>
-  <si>
-    <t>DOC008</t>
-  </si>
-  <si>
-    <t>رخصة السلاح</t>
-  </si>
-  <si>
-    <t>DOC009</t>
-  </si>
-  <si>
-    <t>بطاقة الصراف الآلي لبنك الصور</t>
-  </si>
-  <si>
-    <t>DOC010</t>
-  </si>
-  <si>
-    <t>بطاقة ائتمان الصور</t>
-  </si>
-  <si>
-    <t>DOC011</t>
-  </si>
-  <si>
-    <t>بطاقة مصورة لمقاتل الحرية</t>
-  </si>
-  <si>
-    <t>DOC012</t>
-  </si>
-  <si>
-    <t>عقد زواج</t>
-  </si>
-  <si>
-    <t>DOC013</t>
-  </si>
-  <si>
-    <t>دفتر حسابات أو كشف حساب بنكي</t>
-  </si>
-  <si>
-    <t>DOC014</t>
-  </si>
-  <si>
-    <t>كشف حساب أو دفتر مرور لمكتب البريد</t>
-  </si>
-  <si>
-    <t>DOC015</t>
-  </si>
-  <si>
-    <t>البطاقة التموينية</t>
-  </si>
-  <si>
-    <t>DOC016</t>
-  </si>
-  <si>
-    <t>أصدرت PSU بطاقة هوية تحمل صورة الخدمة مع العنوان</t>
-  </si>
-  <si>
-    <t>DOC017</t>
-  </si>
-  <si>
-    <t>فاتورة الكهرباء عن الثلاثة أشهر السابقة</t>
-  </si>
-  <si>
-    <t>DOC018</t>
-  </si>
-  <si>
-    <t>فاتورة المياه بشرط ألا تزيد عن 3 أشهر</t>
-  </si>
-  <si>
-    <t>DOC024</t>
-  </si>
-  <si>
-    <t>بطاقة PDS</t>
-  </si>
-  <si>
-    <t>DOC025</t>
-  </si>
-  <si>
-    <t>بطاقة طبية صادرة عن حكومة الدولة و CGHS و ECHS و ESIC</t>
-  </si>
-  <si>
-    <t>DOC026</t>
-  </si>
-  <si>
-    <t>بطاقة مقصف للجيش</t>
-  </si>
-  <si>
-    <t>DOC027</t>
-  </si>
-  <si>
-    <t>وثيقة استحقاق الأسرة</t>
-  </si>
-  <si>
-    <t>أي مستند استحقاق عائلي صادر عن أي حكومة مركزية أو حكومة ولاية</t>
-  </si>
-  <si>
-    <t>DOC028</t>
-  </si>
-  <si>
-    <t>شهادة الميلاد</t>
-  </si>
-  <si>
-    <t>مسجل الميلاد / مؤسسة البلدية أو أي شهادة ميلاد حكومية محلية</t>
-  </si>
-  <si>
-    <t>إكسبيديشن فوتو</t>
   </si>
 </sst>
 </file>
@@ -255,7 +153,7 @@
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -267,25 +165,19 @@
       <sz val="11"/>
       <name val="Cambria"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -750,148 +642,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -904,8 +796,10 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1225,10 +1119,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E86"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A7" sqref="$A7:$XFD7"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.45454545454546" defaultRowHeight="14.5" outlineLevelCol="4"/>
@@ -1258,7 +1152,7 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" t="s">
+      <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -1267,506 +1161,205 @@
       <c r="C2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" t="s">
+      <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>9</v>
+      <c r="E3" s="4" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" t="s">
+      <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>9</v>
+      <c r="E4" s="4" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" t="s">
+      <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>9</v>
+      <c r="D5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="4" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" t="s">
+      <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" t="s">
         <v>18</v>
       </c>
-      <c r="D6" t="s">
+      <c r="C6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>9</v>
+      <c r="D6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="4" t="b">
+        <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="4"/>
+    <row r="7" spans="1:5">
+      <c r="A7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="4" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="4"/>
+    <row r="8" spans="1:5">
+      <c r="A8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="4" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="4"/>
+    <row r="9" spans="1:5">
+      <c r="A9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="4" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="4"/>
+    <row r="10" spans="1:5">
+      <c r="A10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="4" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="40" spans="1:1">
-      <c r="A40" s="4"/>
+    <row r="11" spans="1:5">
+      <c r="A11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="4" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="62" spans="1:5">
-      <c r="A62" t="s">
-        <v>20</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C62" t="s">
-        <v>21</v>
-      </c>
-      <c r="D62" t="s">
-        <v>21</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>9</v>
+    <row r="12" spans="1:5">
+      <c r="A12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="4" t="b">
+        <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
-      <c r="A64" t="s">
-        <v>22</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C64" t="s">
-        <v>24</v>
-      </c>
-      <c r="D64" t="s">
-        <v>24</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>9</v>
+    <row r="13" spans="1:5">
+      <c r="A13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="4" t="b">
+        <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
-      <c r="A65" t="s">
-        <v>22</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C65" t="s">
-        <v>26</v>
-      </c>
-      <c r="D65" t="s">
-        <v>27</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
-      <c r="A66" t="s">
-        <v>22</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C66" t="s">
-        <v>29</v>
-      </c>
-      <c r="D66" t="s">
-        <v>29</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
-      <c r="A67" t="s">
-        <v>22</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C67" t="s">
-        <v>31</v>
-      </c>
-      <c r="D67" t="s">
-        <v>31</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
-      <c r="A68" t="s">
-        <v>22</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C68" t="s">
-        <v>33</v>
-      </c>
-      <c r="D68" t="s">
-        <v>33</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
-      <c r="A69" t="s">
-        <v>22</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C69" t="s">
-        <v>35</v>
-      </c>
-      <c r="D69" t="s">
-        <v>35</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
-      <c r="A70" t="s">
-        <v>22</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C70" t="s">
-        <v>37</v>
-      </c>
-      <c r="D70" t="s">
-        <v>37</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
-      <c r="A71" t="s">
-        <v>22</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C71" t="s">
-        <v>39</v>
-      </c>
-      <c r="D71" t="s">
-        <v>39</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
-      <c r="A72" t="s">
-        <v>22</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C72" t="s">
-        <v>41</v>
-      </c>
-      <c r="D72" t="s">
-        <v>41</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
-      <c r="A73" t="s">
-        <v>22</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C73" t="s">
-        <v>43</v>
-      </c>
-      <c r="D73" t="s">
-        <v>43</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
-      <c r="A74" t="s">
-        <v>22</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C74" t="s">
-        <v>45</v>
-      </c>
-      <c r="D74" t="s">
-        <v>45</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
-      <c r="A75" t="s">
-        <v>22</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C75" t="s">
-        <v>47</v>
-      </c>
-      <c r="D75" t="s">
-        <v>47</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
-      <c r="A76" t="s">
-        <v>22</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C76" t="s">
-        <v>49</v>
-      </c>
-      <c r="D76" t="s">
-        <v>49</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
-      <c r="A77" t="s">
-        <v>22</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C77" t="s">
-        <v>51</v>
-      </c>
-      <c r="D77" t="s">
-        <v>51</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
-      <c r="A78" t="s">
-        <v>22</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C78" t="s">
-        <v>53</v>
-      </c>
-      <c r="D78" t="s">
-        <v>53</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
-      <c r="A79" t="s">
-        <v>22</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C79" t="s">
-        <v>55</v>
-      </c>
-      <c r="D79" t="s">
-        <v>55</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
-      <c r="A80" t="s">
-        <v>22</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C80" t="s">
-        <v>57</v>
-      </c>
-      <c r="D80" t="s">
-        <v>57</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
-      <c r="A81" t="s">
-        <v>22</v>
-      </c>
-      <c r="B81" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C81" t="s">
-        <v>59</v>
-      </c>
-      <c r="D81" t="s">
-        <v>59</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
-      <c r="A82" t="s">
-        <v>22</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C82" t="s">
-        <v>61</v>
-      </c>
-      <c r="D82" t="s">
-        <v>61</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
-      <c r="A83" t="s">
-        <v>22</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C83" t="s">
-        <v>63</v>
-      </c>
-      <c r="D83" t="s">
-        <v>63</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
-      <c r="A84" t="s">
-        <v>22</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C84" t="s">
-        <v>65</v>
-      </c>
-      <c r="D84" t="s">
-        <v>66</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
-      <c r="A85" t="s">
-        <v>22</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C85" t="s">
-        <v>68</v>
-      </c>
-      <c r="D85" t="s">
-        <v>69</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
-      <c r="A86" t="s">
-        <v>22</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C86" t="s">
-        <v>70</v>
-      </c>
-      <c r="D86" t="s">
-        <v>70</v>
-      </c>
-      <c r="E86" s="1" t="s">
-        <v>9</v>
-      </c>
+    <row r="22" spans="1:1">
+      <c r="A22" s="5"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E86">
+  <autoFilter ref="A1:E45">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>

--- a/mosip_master/xlsx/doc_type.xlsx
+++ b/mosip_master/xlsx/doc_type.xlsx
@@ -4,14 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6920" tabRatio="500"/>
+    <workbookView windowWidth="21216" windowHeight="9084"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="data-1713952643675" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$45</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -30,35 +27,32 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="125">
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>descr</t>
+  </si>
   <si>
     <t>lang_code</t>
   </si>
   <si>
-    <t>code</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>descr</t>
-  </si>
-  <si>
     <t>is_active</t>
   </si>
   <si>
+    <t>CIN</t>
+  </si>
+  <si>
+    <t>Reference Identity Card</t>
+  </si>
+  <si>
     <t>eng</t>
   </si>
   <si>
-    <t>CIN</t>
-  </si>
-  <si>
-    <t>Reference Identity Card</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                         TRUE</t>
-  </si>
-  <si>
     <t>RNC</t>
   </si>
   <si>
@@ -110,6 +104,12 @@
     <t>PAN card</t>
   </si>
   <si>
+    <t>DOC003</t>
+  </si>
+  <si>
+    <t>Either Ration or PDS Photo card</t>
+  </si>
+  <si>
     <t>DOC004</t>
   </si>
   <si>
@@ -134,6 +134,117 @@
     <t>Service photo ID cards that is issued by a PSU</t>
   </si>
   <si>
+    <t>DOC008</t>
+  </si>
+  <si>
+    <t>Licence of Arms</t>
+  </si>
+  <si>
+    <t>DOC009</t>
+  </si>
+  <si>
+    <t>Photo Bank ATM card</t>
+  </si>
+  <si>
+    <t>DOC010</t>
+  </si>
+  <si>
+    <t>Photo Credit card</t>
+  </si>
+  <si>
+    <t>DOC011</t>
+  </si>
+  <si>
+    <t>Photo card of the Freedom Fighter</t>
+  </si>
+  <si>
+    <t>DOC012</t>
+  </si>
+  <si>
+    <t>Certificate of Marriage</t>
+  </si>
+  <si>
+    <t>DOC013</t>
+  </si>
+  <si>
+    <t>Passbook or Bank Statement</t>
+  </si>
+  <si>
+    <t>DOC014</t>
+  </si>
+  <si>
+    <t>Account statement or passbook of the Post Office</t>
+  </si>
+  <si>
+    <t>DOC015</t>
+  </si>
+  <si>
+    <t>Ration Card</t>
+  </si>
+  <si>
+    <t>DOC016</t>
+  </si>
+  <si>
+    <t>PSU issued Service photo ID card with address</t>
+  </si>
+  <si>
+    <t>DOC017</t>
+  </si>
+  <si>
+    <t>Previous 3 months’ electricity bill</t>
+  </si>
+  <si>
+    <t>DOC018</t>
+  </si>
+  <si>
+    <t>Water bill as long as it is not more than 3 months’ old</t>
+  </si>
+  <si>
+    <t>DOC024</t>
+  </si>
+  <si>
+    <t>PDS Card</t>
+  </si>
+  <si>
+    <t>DOC025</t>
+  </si>
+  <si>
+    <t>Medical card issued by the State Govt, CGHS, ECHS and ESIC</t>
+  </si>
+  <si>
+    <t>Medical card issued by the State Government, CGHS, ECHS and also ESIC</t>
+  </si>
+  <si>
+    <t>DOC026</t>
+  </si>
+  <si>
+    <t>Canteen card of the Army</t>
+  </si>
+  <si>
+    <t>DOC027</t>
+  </si>
+  <si>
+    <t>Family entitlement document</t>
+  </si>
+  <si>
+    <t>Any family entitlement document issued by any Central or State Government</t>
+  </si>
+  <si>
+    <t>DOC028</t>
+  </si>
+  <si>
+    <t>Birth Certificate</t>
+  </si>
+  <si>
+    <t>Registrar of Birth/municipal Corporation or any local government Birth Certificate</t>
+  </si>
+  <si>
+    <t>EOP</t>
+  </si>
+  <si>
+    <t>Exception Photo</t>
+  </si>
+  <si>
     <t>CRN</t>
   </si>
   <si>
@@ -141,6 +252,156 @@
   </si>
   <si>
     <t xml:space="preserve">Proof of relationship </t>
+  </si>
+  <si>
+    <t>RPH</t>
+  </si>
+  <si>
+    <t>Resident Photo</t>
+  </si>
+  <si>
+    <t>Proof of Resident Photo</t>
+  </si>
+  <si>
+    <t>SCS</t>
+  </si>
+  <si>
+    <t>Signed Consent Sheet</t>
+  </si>
+  <si>
+    <t>भाड़े का अनुबंध</t>
+  </si>
+  <si>
+    <t>पते का रेंटल एग्रीमेंट</t>
+  </si>
+  <si>
+    <t>hin</t>
+  </si>
+  <si>
+    <t>निवास का प्रमाण पत्र</t>
+  </si>
+  <si>
+    <t>निवासी का प्रमाण</t>
+  </si>
+  <si>
+    <t>पासपोर्ट</t>
+  </si>
+  <si>
+    <t>पहचान का प्रमाण</t>
+  </si>
+  <si>
+    <t>रिश्ते का प्रमाण पत्र</t>
+  </si>
+  <si>
+    <t>किसी व्यक्ति का प्रमाण संबंध</t>
+  </si>
+  <si>
+    <t>जन्म का प्रमाण पत्र</t>
+  </si>
+  <si>
+    <t>किसी व्यक्ति का जन्म और आयु का प्रमाण</t>
+  </si>
+  <si>
+    <t>अपवाद का प्रमाणन</t>
+  </si>
+  <si>
+    <t>पैन कार्ड</t>
+  </si>
+  <si>
+    <t>या तो राशन या पीडीएस फोटो कार्ड</t>
+  </si>
+  <si>
+    <t>मतदाता पहचान पत्र</t>
+  </si>
+  <si>
+    <t>आवेदक का ड्राइविंग लाइसेंस</t>
+  </si>
+  <si>
+    <t>सरकार द्वारा जारी फोटो पहचान पत्र</t>
+  </si>
+  <si>
+    <t>हथियारों का लाइसेंस</t>
+  </si>
+  <si>
+    <t>फोटो बैंक एटीएम कार्ड</t>
+  </si>
+  <si>
+    <t>फोटो क्रेडिट कार्ड</t>
+  </si>
+  <si>
+    <t>स्वतंत्रता सेनानी का फोटो कार्ड</t>
+  </si>
+  <si>
+    <t>शादी का प्रमाण पत्र</t>
+  </si>
+  <si>
+    <t>पासबुक या बैंक स्टेटमेंट</t>
+  </si>
+  <si>
+    <t>डाकघर का खाता विवरण या पासबुक</t>
+  </si>
+  <si>
+    <t>राशन पत्रिका</t>
+  </si>
+  <si>
+    <t>पीएसयू ने पते के साथ सर्विस फोटो आईडी कार्ड जारी किया</t>
+  </si>
+  <si>
+    <t>पिछले 3 महीने का बिजली बिल</t>
+  </si>
+  <si>
+    <t>पानी का बिल जब तक कि वह 3 महीने से अधिक पुराना न हो</t>
+  </si>
+  <si>
+    <t>पीडीएस कार्ड</t>
+  </si>
+  <si>
+    <t>सेना का कैंटीन कार्ड</t>
+  </si>
+  <si>
+    <t>परिवार के अधिकार का दस्तावेज</t>
+  </si>
+  <si>
+    <t>किसी भी केंद्र या राज्य सरकार द्वारा जारी किया गया कोई भी परिवार पात्रता दस्तावेज</t>
+  </si>
+  <si>
+    <t>जन्म प्रमाणपत्र</t>
+  </si>
+  <si>
+    <t>जन्म / नगर निगम के रजिस्ट्रार या किसी स्थानीय सरकार का जन्म प्रमाण पत्र</t>
+  </si>
+  <si>
+    <t>अपवाद फोटो</t>
+  </si>
+  <si>
+    <t>संदर्भ पहचान पत्र</t>
+  </si>
+  <si>
+    <t>TestDocType0020</t>
+  </si>
+  <si>
+    <t>तॆस्त्दॊच्त्य्पॆ००२० चर्द्</t>
+  </si>
+  <si>
+    <t>$रॆमॊवॆ$</t>
+  </si>
+  <si>
+    <t>रहिवासी फोटो</t>
+  </si>
+  <si>
+    <t>रहिवाशाचा पुरावा फोटो</t>
+  </si>
+  <si>
+    <t>TestDocType0010</t>
+  </si>
+  <si>
+    <t>तॆस्त्दॊच्त्य्पॆ००१० चर्द्</t>
+  </si>
+  <si>
+    <t>तॆस्त्दॊच्त्य्पॆ००१० चर्द् हॊल्दॆर् उप्दतॆद्</t>
+  </si>
+  <si>
+    <t>हस्ताक्षरित सहमति पत्र</t>
   </si>
 </sst>
 </file>
@@ -153,31 +414,13 @@
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Cambria"/>
-      <charset val="1"/>
-    </font>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -518,27 +761,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -641,20 +869,34 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -663,143 +905,122 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+  <cellXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -852,7 +1073,221 @@
     <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="17">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="double">
+          <color theme="4"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+        <horizontal style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
+  <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
+    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
+      <tableStyleElement type="wholeTable" dxfId="6"/>
+      <tableStyleElement type="headerRow" dxfId="5"/>
+      <tableStyleElement type="totalRow" dxfId="4"/>
+      <tableStyleElement type="firstColumn" dxfId="3"/>
+      <tableStyleElement type="lastColumn" dxfId="2"/>
+      <tableStyleElement type="firstRowStripe" dxfId="1"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
+    </tableStyle>
+    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
+      <tableStyleElement type="headerRow" dxfId="16"/>
+      <tableStyleElement type="totalRow" dxfId="15"/>
+      <tableStyleElement type="firstRowStripe" dxfId="14"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="12"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="11"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="10"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="9"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="8"/>
+      <tableStyleElement type="pageFieldValues" dxfId="7"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -862,7 +1297,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -907,9 +1342,9 @@
         <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -942,9 +1377,9 @@
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -1119,251 +1554,1121 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="M50" sqref="M50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.45454545454546" defaultRowHeight="14.5" outlineLevelCol="4"/>
-  <cols>
-    <col min="1" max="1" width="25.1818181818182" customWidth="1"/>
-    <col min="2" max="2" width="26" style="1" customWidth="1"/>
-    <col min="3" max="3" width="53.4545454545455" customWidth="1"/>
-    <col min="4" max="4" width="58.1818181818182" customWidth="1"/>
-    <col min="5" max="5" width="27.8181818181818" style="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="4" t="s">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="4" t="s">
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" t="s">
+        <v>54</v>
+      </c>
+      <c r="D23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" t="s">
+        <v>56</v>
+      </c>
+      <c r="D24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" t="s">
+        <v>58</v>
+      </c>
+      <c r="D25" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>59</v>
+      </c>
+      <c r="B26" t="s">
+        <v>60</v>
+      </c>
+      <c r="C26" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>62</v>
+      </c>
+      <c r="B27" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>64</v>
+      </c>
+      <c r="B28" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" t="s">
+        <v>66</v>
+      </c>
+      <c r="D28" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>67</v>
+      </c>
+      <c r="B29" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29" t="s">
+        <v>69</v>
+      </c>
+      <c r="D29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>70</v>
+      </c>
+      <c r="B30" t="s">
+        <v>71</v>
+      </c>
+      <c r="C30" t="s">
+        <v>71</v>
+      </c>
+      <c r="D30" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
+        <v>72</v>
+      </c>
+      <c r="B31" t="s">
+        <v>73</v>
+      </c>
+      <c r="C31" t="s">
+        <v>74</v>
+      </c>
+      <c r="D31" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
+        <v>75</v>
+      </c>
+      <c r="B32" t="s">
+        <v>76</v>
+      </c>
+      <c r="C32" t="s">
+        <v>77</v>
+      </c>
+      <c r="D32" t="s">
+        <v>7</v>
+      </c>
+      <c r="E32" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
+        <v>78</v>
+      </c>
+      <c r="B33" t="s">
+        <v>79</v>
+      </c>
+      <c r="C33" t="s">
+        <v>79</v>
+      </c>
+      <c r="D33" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34" t="s">
+        <v>80</v>
+      </c>
+      <c r="C34" t="s">
+        <v>81</v>
+      </c>
+      <c r="D34" t="s">
+        <v>82</v>
+      </c>
+      <c r="E34" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>11</v>
+      </c>
+      <c r="B35" t="s">
+        <v>83</v>
+      </c>
+      <c r="C35" t="s">
+        <v>84</v>
+      </c>
+      <c r="D35" t="s">
+        <v>82</v>
+      </c>
+      <c r="E35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
+        <v>14</v>
+      </c>
+      <c r="B36" t="s">
+        <v>85</v>
+      </c>
+      <c r="C36" t="s">
+        <v>86</v>
+      </c>
+      <c r="D36" t="s">
+        <v>82</v>
+      </c>
+      <c r="E36" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
+        <v>72</v>
+      </c>
+      <c r="B37" t="s">
+        <v>87</v>
+      </c>
+      <c r="C37" t="s">
+        <v>88</v>
+      </c>
+      <c r="D37" t="s">
+        <v>82</v>
+      </c>
+      <c r="E37" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" t="s">
+        <v>17</v>
+      </c>
+      <c r="B38" t="s">
+        <v>89</v>
+      </c>
+      <c r="C38" t="s">
+        <v>90</v>
+      </c>
+      <c r="D38" t="s">
+        <v>82</v>
+      </c>
+      <c r="E38" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" t="s">
+        <v>20</v>
+      </c>
+      <c r="B39" t="s">
+        <v>91</v>
+      </c>
+      <c r="C39" t="s">
+        <v>91</v>
+      </c>
+      <c r="D39" t="s">
+        <v>82</v>
+      </c>
+      <c r="E39" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" t="s">
+        <v>23</v>
+      </c>
+      <c r="B40" t="s">
+        <v>92</v>
+      </c>
+      <c r="C40" t="s">
+        <v>92</v>
+      </c>
+      <c r="D40" t="s">
+        <v>82</v>
+      </c>
+      <c r="E40" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" t="s">
+        <v>25</v>
+      </c>
+      <c r="B41" t="s">
+        <v>93</v>
+      </c>
+      <c r="C41" t="s">
+        <v>93</v>
+      </c>
+      <c r="D41" t="s">
+        <v>82</v>
+      </c>
+      <c r="E41" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" t="s">
+        <v>27</v>
+      </c>
+      <c r="B42" t="s">
+        <v>94</v>
+      </c>
+      <c r="C42" t="s">
+        <v>94</v>
+      </c>
+      <c r="D42" t="s">
+        <v>82</v>
+      </c>
+      <c r="E42" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" t="s">
+        <v>29</v>
+      </c>
+      <c r="B43" t="s">
+        <v>95</v>
+      </c>
+      <c r="C43" t="s">
+        <v>95</v>
+      </c>
+      <c r="D43" t="s">
+        <v>82</v>
+      </c>
+      <c r="E43" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" t="s">
+        <v>31</v>
+      </c>
+      <c r="B44" t="s">
+        <v>96</v>
+      </c>
+      <c r="C44" t="s">
+        <v>96</v>
+      </c>
+      <c r="D44" t="s">
+        <v>82</v>
+      </c>
+      <c r="E44" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" t="s">
+        <v>35</v>
+      </c>
+      <c r="B45" t="s">
+        <v>97</v>
+      </c>
+      <c r="C45" t="s">
+        <v>97</v>
+      </c>
+      <c r="D45" t="s">
+        <v>82</v>
+      </c>
+      <c r="E45" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" t="s">
+        <v>37</v>
+      </c>
+      <c r="B46" t="s">
+        <v>98</v>
+      </c>
+      <c r="C46" t="s">
+        <v>98</v>
+      </c>
+      <c r="D46" t="s">
+        <v>82</v>
+      </c>
+      <c r="E46" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" t="s">
+        <v>39</v>
+      </c>
+      <c r="B47" t="s">
+        <v>99</v>
+      </c>
+      <c r="C47" t="s">
+        <v>99</v>
+      </c>
+      <c r="D47" t="s">
+        <v>82</v>
+      </c>
+      <c r="E47" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" t="s">
+        <v>41</v>
+      </c>
+      <c r="B48" t="s">
+        <v>100</v>
+      </c>
+      <c r="C48" t="s">
+        <v>100</v>
+      </c>
+      <c r="D48" t="s">
+        <v>82</v>
+      </c>
+      <c r="E48" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" t="s">
+        <v>43</v>
+      </c>
+      <c r="B49" t="s">
+        <v>101</v>
+      </c>
+      <c r="C49" t="s">
+        <v>101</v>
+      </c>
+      <c r="D49" t="s">
+        <v>82</v>
+      </c>
+      <c r="E49" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" t="s">
+        <v>45</v>
+      </c>
+      <c r="B50" t="s">
+        <v>102</v>
+      </c>
+      <c r="C50" t="s">
+        <v>102</v>
+      </c>
+      <c r="D50" t="s">
+        <v>82</v>
+      </c>
+      <c r="E50" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" t="s">
+        <v>47</v>
+      </c>
+      <c r="B51" t="s">
+        <v>103</v>
+      </c>
+      <c r="C51" t="s">
+        <v>103</v>
+      </c>
+      <c r="D51" t="s">
+        <v>82</v>
+      </c>
+      <c r="E51" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" t="s">
+        <v>49</v>
+      </c>
+      <c r="B52" t="s">
+        <v>104</v>
+      </c>
+      <c r="C52" t="s">
+        <v>104</v>
+      </c>
+      <c r="D52" t="s">
+        <v>82</v>
+      </c>
+      <c r="E52" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" t="s">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>105</v>
+      </c>
+      <c r="C53" t="s">
+        <v>105</v>
+      </c>
+      <c r="D53" t="s">
+        <v>82</v>
+      </c>
+      <c r="E53" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" t="s">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>106</v>
+      </c>
+      <c r="C54" t="s">
+        <v>106</v>
+      </c>
+      <c r="D54" t="s">
+        <v>82</v>
+      </c>
+      <c r="E54" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" t="s">
+        <v>55</v>
+      </c>
+      <c r="B55" t="s">
+        <v>107</v>
+      </c>
+      <c r="C55" t="s">
+        <v>107</v>
+      </c>
+      <c r="D55" t="s">
+        <v>82</v>
+      </c>
+      <c r="E55" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" t="s">
+        <v>57</v>
+      </c>
+      <c r="B56" t="s">
+        <v>108</v>
+      </c>
+      <c r="C56" t="s">
+        <v>108</v>
+      </c>
+      <c r="D56" t="s">
+        <v>82</v>
+      </c>
+      <c r="E56" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" t="s">
+        <v>62</v>
+      </c>
+      <c r="B57" t="s">
+        <v>109</v>
+      </c>
+      <c r="C57" t="s">
+        <v>109</v>
+      </c>
+      <c r="D57" t="s">
+        <v>82</v>
+      </c>
+      <c r="E57" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" t="s">
+        <v>64</v>
+      </c>
+      <c r="B58" t="s">
+        <v>110</v>
+      </c>
+      <c r="C58" t="s">
+        <v>111</v>
+      </c>
+      <c r="D58" t="s">
+        <v>82</v>
+      </c>
+      <c r="E58" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" t="s">
+        <v>67</v>
+      </c>
+      <c r="B59" t="s">
+        <v>112</v>
+      </c>
+      <c r="C59" t="s">
+        <v>113</v>
+      </c>
+      <c r="D59" t="s">
+        <v>82</v>
+      </c>
+      <c r="E59" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" t="s">
+        <v>70</v>
+      </c>
+      <c r="B60" t="s">
+        <v>114</v>
+      </c>
+      <c r="C60" t="s">
+        <v>114</v>
+      </c>
+      <c r="D60" t="s">
+        <v>82</v>
+      </c>
+      <c r="E60" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E13" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="5"/>
+      <c r="B61" t="s">
+        <v>115</v>
+      </c>
+      <c r="C61" t="s">
+        <v>115</v>
+      </c>
+      <c r="D61" t="s">
+        <v>82</v>
+      </c>
+      <c r="E61" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" t="s">
+        <v>116</v>
+      </c>
+      <c r="B62" t="s">
+        <v>117</v>
+      </c>
+      <c r="C62" t="s">
+        <v>118</v>
+      </c>
+      <c r="D62" t="s">
+        <v>82</v>
+      </c>
+      <c r="E62" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" t="s">
+        <v>75</v>
+      </c>
+      <c r="B63" t="s">
+        <v>119</v>
+      </c>
+      <c r="C63" t="s">
+        <v>120</v>
+      </c>
+      <c r="D63" t="s">
+        <v>82</v>
+      </c>
+      <c r="E63" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" t="s">
+        <v>121</v>
+      </c>
+      <c r="B64" t="s">
+        <v>122</v>
+      </c>
+      <c r="C64" t="s">
+        <v>123</v>
+      </c>
+      <c r="D64" t="s">
+        <v>82</v>
+      </c>
+      <c r="E64" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" t="s">
+        <v>78</v>
+      </c>
+      <c r="B65" t="s">
+        <v>124</v>
+      </c>
+      <c r="C65" t="s">
+        <v>124</v>
+      </c>
+      <c r="D65" t="s">
+        <v>82</v>
+      </c>
+      <c r="E65" t="b">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E45">
-    <extLst/>
-  </autoFilter>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/mosip_master/xlsx/doc_type.xlsx
+++ b/mosip_master/xlsx/doc_type.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21216" windowHeight="9084"/>
+    <workbookView windowWidth="18350" windowHeight="6920"/>
   </bookViews>
   <sheets>
-    <sheet name="data-1713952643675" sheetId="1" r:id="rId1"/>
+    <sheet name="doc_type" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="211">
   <si>
     <t>code</t>
   </si>
@@ -377,6 +377,15 @@
     <t>संदर्भ पहचान पत्र</t>
   </si>
   <si>
+    <t>रहिवासी फोटो</t>
+  </si>
+  <si>
+    <t>रहिवाशाचा पुरावा फोटो</t>
+  </si>
+  <si>
+    <t>हस्ताक्षरित सहमति पत्र</t>
+  </si>
+  <si>
     <t>TestDocType0020</t>
   </si>
   <si>
@@ -386,12 +395,6 @@
     <t>$रॆमॊवॆ$</t>
   </si>
   <si>
-    <t>रहिवासी फोटो</t>
-  </si>
-  <si>
-    <t>रहिवाशाचा पुरावा फोटो</t>
-  </si>
-  <si>
     <t>TestDocType0010</t>
   </si>
   <si>
@@ -401,7 +404,262 @@
     <t>तॆस्त्दॊच्त्य्पॆ००१० चर्द् हॊल्दॆर् उप्दतॆद्</t>
   </si>
   <si>
-    <t>हस्ताक्षरित सहमति पत्र</t>
+    <t>Tarjeta de Identidad de Referencia</t>
+  </si>
+  <si>
+    <t>spa</t>
+  </si>
+  <si>
+    <t>Contrato de alquiler</t>
+  </si>
+  <si>
+    <t>Contrato de alquiler de domicilio</t>
+  </si>
+  <si>
+    <t>Certificado de residencia</t>
+  </si>
+  <si>
+    <t>Prueba de residente</t>
+  </si>
+  <si>
+    <t>Pasaporte</t>
+  </si>
+  <si>
+    <t>Certificado de Nacimiento</t>
+  </si>
+  <si>
+    <t>Prueba de nacimiento y edad de una persona.</t>
+  </si>
+  <si>
+    <t>Certificación de excepción</t>
+  </si>
+  <si>
+    <t>Certificado de excepción</t>
+  </si>
+  <si>
+    <t>tarjeta PAN</t>
+  </si>
+  <si>
+    <t>Tarjeta Ration o PDS Photo</t>
+  </si>
+  <si>
+    <t>Tarjeta de identificación de elector</t>
+  </si>
+  <si>
+    <t>Licencia de conducir del solicitante</t>
+  </si>
+  <si>
+    <t>Tarjetas de identificación con fotografía emitidas por el Gobierno.</t>
+  </si>
+  <si>
+    <t>Tarjetas de identificación con fotografía de servicio emitidas por una fuente de alimentación</t>
+  </si>
+  <si>
+    <t>Licencia de Armas</t>
+  </si>
+  <si>
+    <t>Tarjeta de cajero automático de Photo Bank</t>
+  </si>
+  <si>
+    <t>Tarjeta de crédito con foto</t>
+  </si>
+  <si>
+    <t>Tarjeta fotográfica del luchador por la libertad.</t>
+  </si>
+  <si>
+    <t>Certificado de matrimonio</t>
+  </si>
+  <si>
+    <t>Libreta o extracto bancario</t>
+  </si>
+  <si>
+    <t>Estado de cuenta o libreta de correos</t>
+  </si>
+  <si>
+    <t>Tarjeta de racionamiento</t>
+  </si>
+  <si>
+    <t>Tarjeta de identificación con fotografía del servicio emitida por la PSU y dirección</t>
+  </si>
+  <si>
+    <t>Factura de luz de los 3 meses anteriores</t>
+  </si>
+  <si>
+    <t>Factura de agua siempre que no tenga más de 3 meses de antigüedad.</t>
+  </si>
+  <si>
+    <t>Tarjeta PDS</t>
+  </si>
+  <si>
+    <t>Tarjeta médica emitida por el Gobierno del Estado, CGHS, ECHS y ESIC</t>
+  </si>
+  <si>
+    <t>Tarjeta médica emitida por el Gobierno del Estado, CGHS, ECHS y también ESIC</t>
+  </si>
+  <si>
+    <t>Tarjeta de comedor del ejército.</t>
+  </si>
+  <si>
+    <t>Documento de derecho familiar</t>
+  </si>
+  <si>
+    <t>Cualquier documento de derecho familiar emitido por cualquier gobierno central o estatal.</t>
+  </si>
+  <si>
+    <t>Certificado de nacimiento</t>
+  </si>
+  <si>
+    <t>Registrador de Nacimiento/Corporación Municipal o cualquier Certificado de Nacimiento del gobierno local</t>
+  </si>
+  <si>
+    <t>Foto de excepción</t>
+  </si>
+  <si>
+    <t>acelga testdochtyp0020</t>
+  </si>
+  <si>
+    <t>$eliminar$</t>
+  </si>
+  <si>
+    <t>Foto residente</t>
+  </si>
+  <si>
+    <t>Foto de prueba de residente</t>
+  </si>
+  <si>
+    <t>testdochtyp0010 acelgas</t>
+  </si>
+  <si>
+    <t>Hoja de consentimiento firmada</t>
+  </si>
+  <si>
+    <t>Carte d'identité de référence</t>
+  </si>
+  <si>
+    <t>fra</t>
+  </si>
+  <si>
+    <t>Contrat de location</t>
+  </si>
+  <si>
+    <t>Contrat de location d'adresse</t>
+  </si>
+  <si>
+    <t>Certificat de résidence</t>
+  </si>
+  <si>
+    <t>Preuve de résidence</t>
+  </si>
+  <si>
+    <t>Passeport</t>
+  </si>
+  <si>
+    <t>Preuve d'identité</t>
+  </si>
+  <si>
+    <t>Acte de naissance</t>
+  </si>
+  <si>
+    <t>Preuve de naissance et d'âge d'une personne</t>
+  </si>
+  <si>
+    <t>Certification d'exception</t>
+  </si>
+  <si>
+    <t>Certificat d'exception</t>
+  </si>
+  <si>
+    <t>Carte PAN</t>
+  </si>
+  <si>
+    <t>Soit une carte photo de ration ou de PDS</t>
+  </si>
+  <si>
+    <t>Carte d'identité d'électeur</t>
+  </si>
+  <si>
+    <t>Permis de conduire du demandeur</t>
+  </si>
+  <si>
+    <t>Cartes d'identité avec photo délivrées par le gouvernement</t>
+  </si>
+  <si>
+    <t>Cartes d'identité avec photo de service délivrées par un PSU</t>
+  </si>
+  <si>
+    <t>Permis d'armes</t>
+  </si>
+  <si>
+    <t>Carte ATM de banque de photos</t>
+  </si>
+  <si>
+    <t>Carte de crédit avec photo</t>
+  </si>
+  <si>
+    <t>Carte photo du Freedom Fighter</t>
+  </si>
+  <si>
+    <t>Acte de mariage</t>
+  </si>
+  <si>
+    <t>Livret ou relevé bancaire</t>
+  </si>
+  <si>
+    <t>Relevé de compte ou livret de la Poste</t>
+  </si>
+  <si>
+    <t>Carte de rationnement</t>
+  </si>
+  <si>
+    <t>Carte d'identité avec photo de service délivrée par le PSU avec adresse</t>
+  </si>
+  <si>
+    <t>Facture d’électricité des 3 derniers mois</t>
+  </si>
+  <si>
+    <t>Facture d’eau à condition qu’elle ne date pas de plus de 3 mois</t>
+  </si>
+  <si>
+    <t>Carte PDS</t>
+  </si>
+  <si>
+    <t>Carte médicale délivrée par le gouvernement de l'État, CGHS, ECHS et ESIC</t>
+  </si>
+  <si>
+    <t>Carte médicale délivrée par le gouvernement de l'État, le CGHS, l'ECHS et également l'ESIC</t>
+  </si>
+  <si>
+    <t>Carte de cantine de l'Armée</t>
+  </si>
+  <si>
+    <t>Titre de droit familial</t>
+  </si>
+  <si>
+    <t>Tout document de droit familial délivré par un gouvernement central ou d'État</t>
+  </si>
+  <si>
+    <t>Registre des naissances/société municipale ou tout certificat de naissance du gouvernement local</t>
+  </si>
+  <si>
+    <t>Photo exceptionnelle</t>
+  </si>
+  <si>
+    <t>blettes testdochtyp0020</t>
+  </si>
+  <si>
+    <t>$supprimer$</t>
+  </si>
+  <si>
+    <t>Photo du résident</t>
+  </si>
+  <si>
+    <t>Preuve de photo de résidence</t>
+  </si>
+  <si>
+    <t>testdochtyp0010 blettes</t>
+  </si>
+  <si>
+    <t>Feuille de consentement signée</t>
   </si>
 </sst>
 </file>
@@ -1017,8 +1275,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1554,13 +1818,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E65"/>
+  <dimension ref="A1:G131"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="M50" sqref="M50"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
+      <selection activeCell="B133" sqref="B133"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.81818181818182" defaultRowHeight="14.5" outlineLevelCol="6"/>
+  <cols>
+    <col min="2" max="2" width="59.7272727272727" customWidth="1"/>
+    <col min="3" max="3" width="86" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -1579,7 +1847,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1595,8 +1863,10 @@
       <c r="E2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -1612,8 +1882,10 @@
       <c r="E3" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -1629,8 +1901,10 @@
       <c r="E4" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -1646,8 +1920,10 @@
       <c r="E5" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -1663,8 +1939,10 @@
       <c r="E6" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -1680,8 +1958,10 @@
       <c r="E7" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7"/>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -1697,8 +1977,10 @@
       <c r="E8" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="F8"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -1714,8 +1996,10 @@
       <c r="E9" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="F9"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -1731,8 +2015,10 @@
       <c r="E10" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="F10"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -1748,8 +2034,10 @@
       <c r="E11" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="F11"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -1765,8 +2053,10 @@
       <c r="E12" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="F12"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>33</v>
       </c>
@@ -1782,8 +2072,10 @@
       <c r="E13" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="F13"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -1799,8 +2091,10 @@
       <c r="E14" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="F14"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>37</v>
       </c>
@@ -1816,8 +2110,10 @@
       <c r="E15" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>39</v>
       </c>
@@ -1833,8 +2129,10 @@
       <c r="E16" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="F16"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
         <v>41</v>
       </c>
@@ -1850,8 +2148,10 @@
       <c r="E17" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
         <v>43</v>
       </c>
@@ -1867,8 +2167,10 @@
       <c r="E18" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" t="s">
         <v>45</v>
       </c>
@@ -1884,8 +2186,10 @@
       <c r="E19" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="F19"/>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" t="s">
         <v>47</v>
       </c>
@@ -1901,8 +2205,10 @@
       <c r="E20" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="F20"/>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" t="s">
         <v>49</v>
       </c>
@@ -1918,8 +2224,10 @@
       <c r="E21" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="F21"/>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" t="s">
         <v>51</v>
       </c>
@@ -1935,8 +2243,10 @@
       <c r="E22" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22"/>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" t="s">
         <v>53</v>
       </c>
@@ -1952,8 +2262,10 @@
       <c r="E23" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23"/>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" t="s">
         <v>55</v>
       </c>
@@ -1969,8 +2281,10 @@
       <c r="E24" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="F24"/>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" t="s">
         <v>57</v>
       </c>
@@ -1986,8 +2300,10 @@
       <c r="E25" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="F25"/>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" t="s">
         <v>59</v>
       </c>
@@ -2003,8 +2319,10 @@
       <c r="E26" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="F26"/>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" t="s">
         <v>62</v>
       </c>
@@ -2020,8 +2338,10 @@
       <c r="E27" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27"/>
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" t="s">
         <v>64</v>
       </c>
@@ -2037,8 +2357,10 @@
       <c r="E28" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:5">
+      <c r="F28"/>
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" t="s">
         <v>67</v>
       </c>
@@ -2054,8 +2376,10 @@
       <c r="E29" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:5">
+      <c r="F29"/>
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" t="s">
         <v>70</v>
       </c>
@@ -2071,8 +2395,10 @@
       <c r="E30" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:5">
+      <c r="F30"/>
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" t="s">
         <v>72</v>
       </c>
@@ -2088,8 +2414,10 @@
       <c r="E31" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:5">
+      <c r="F31"/>
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" t="s">
         <v>75</v>
       </c>
@@ -2105,8 +2433,10 @@
       <c r="E32" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:5">
+      <c r="F32"/>
+      <c r="G32" s="1"/>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" t="s">
         <v>78</v>
       </c>
@@ -2122,8 +2452,10 @@
       <c r="E33" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:5">
+      <c r="F33"/>
+      <c r="G33" s="1"/>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" t="s">
         <v>8</v>
       </c>
@@ -2139,8 +2471,10 @@
       <c r="E34" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:5">
+      <c r="F34"/>
+      <c r="G34" s="1"/>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" t="s">
         <v>11</v>
       </c>
@@ -2156,8 +2490,10 @@
       <c r="E35" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35"/>
+      <c r="G35" s="1"/>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" t="s">
         <v>14</v>
       </c>
@@ -2173,8 +2509,10 @@
       <c r="E36" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:5">
+      <c r="F36"/>
+      <c r="G36" s="1"/>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" t="s">
         <v>72</v>
       </c>
@@ -2190,8 +2528,10 @@
       <c r="E37" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37"/>
+      <c r="G37" s="1"/>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" t="s">
         <v>17</v>
       </c>
@@ -2207,8 +2547,10 @@
       <c r="E38" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:5">
+      <c r="F38"/>
+      <c r="G38" s="1"/>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" t="s">
         <v>20</v>
       </c>
@@ -2224,8 +2566,10 @@
       <c r="E39" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:5">
+      <c r="F39"/>
+      <c r="G39" s="1"/>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" t="s">
         <v>23</v>
       </c>
@@ -2241,8 +2585,10 @@
       <c r="E40" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:5">
+      <c r="F40"/>
+      <c r="G40" s="1"/>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" t="s">
         <v>25</v>
       </c>
@@ -2258,8 +2604,10 @@
       <c r="E41" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:5">
+      <c r="F41"/>
+      <c r="G41" s="1"/>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" t="s">
         <v>27</v>
       </c>
@@ -2275,8 +2623,10 @@
       <c r="E42" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42"/>
+      <c r="G42" s="1"/>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" t="s">
         <v>29</v>
       </c>
@@ -2292,8 +2642,10 @@
       <c r="E43" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:5">
+      <c r="F43"/>
+      <c r="G43" s="1"/>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" t="s">
         <v>31</v>
       </c>
@@ -2309,8 +2661,10 @@
       <c r="E44" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:5">
+      <c r="F44"/>
+      <c r="G44" s="1"/>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" t="s">
         <v>35</v>
       </c>
@@ -2326,8 +2680,10 @@
       <c r="E45" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45"/>
+      <c r="G45" s="1"/>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" t="s">
         <v>37</v>
       </c>
@@ -2343,8 +2699,10 @@
       <c r="E46" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:5">
+      <c r="F46"/>
+      <c r="G46" s="1"/>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" t="s">
         <v>39</v>
       </c>
@@ -2360,8 +2718,10 @@
       <c r="E47" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:5">
+      <c r="F47"/>
+      <c r="G47" s="1"/>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" t="s">
         <v>41</v>
       </c>
@@ -2377,8 +2737,10 @@
       <c r="E48" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:5">
+      <c r="F48"/>
+      <c r="G48" s="1"/>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" t="s">
         <v>43</v>
       </c>
@@ -2394,8 +2756,10 @@
       <c r="E49" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49"/>
+      <c r="G49" s="1"/>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" t="s">
         <v>45</v>
       </c>
@@ -2411,8 +2775,10 @@
       <c r="E50" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:5">
+      <c r="F50"/>
+      <c r="G50" s="1"/>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" t="s">
         <v>47</v>
       </c>
@@ -2428,8 +2794,10 @@
       <c r="E51" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:5">
+      <c r="F51"/>
+      <c r="G51" s="1"/>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" t="s">
         <v>49</v>
       </c>
@@ -2445,8 +2813,10 @@
       <c r="E52" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52"/>
+      <c r="G52" s="1"/>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" t="s">
         <v>51</v>
       </c>
@@ -2462,8 +2832,10 @@
       <c r="E53" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:5">
+      <c r="F53"/>
+      <c r="G53" s="1"/>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" t="s">
         <v>53</v>
       </c>
@@ -2479,8 +2851,10 @@
       <c r="E54" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:5">
+      <c r="F54"/>
+      <c r="G54" s="1"/>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" t="s">
         <v>55</v>
       </c>
@@ -2496,8 +2870,10 @@
       <c r="E55" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:5">
+      <c r="F55"/>
+      <c r="G55" s="1"/>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" t="s">
         <v>57</v>
       </c>
@@ -2513,8 +2889,10 @@
       <c r="E56" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:5">
+      <c r="F56"/>
+      <c r="G56" s="1"/>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" t="s">
         <v>62</v>
       </c>
@@ -2530,8 +2908,10 @@
       <c r="E57" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57"/>
+      <c r="G57" s="1"/>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" t="s">
         <v>64</v>
       </c>
@@ -2547,8 +2927,10 @@
       <c r="E58" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:5">
+      <c r="F58"/>
+      <c r="G58" s="1"/>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" t="s">
         <v>67</v>
       </c>
@@ -2564,8 +2946,10 @@
       <c r="E59" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:5">
+      <c r="F59"/>
+      <c r="G59" s="1"/>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" t="s">
         <v>70</v>
       </c>
@@ -2581,8 +2965,10 @@
       <c r="E60" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:5">
+      <c r="F60"/>
+      <c r="G60" s="1"/>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" t="s">
         <v>5</v>
       </c>
@@ -2598,33 +2984,37 @@
       <c r="E61" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:5">
+      <c r="F61"/>
+      <c r="G61" s="1"/>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" t="s">
+        <v>75</v>
+      </c>
+      <c r="B62" t="s">
         <v>116</v>
       </c>
-      <c r="B62" t="s">
+      <c r="C62" t="s">
         <v>117</v>
-      </c>
-      <c r="C62" t="s">
-        <v>118</v>
       </c>
       <c r="D62" t="s">
         <v>82</v>
       </c>
       <c r="E62" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
+        <v>1</v>
+      </c>
+      <c r="F62"/>
+      <c r="G62" s="1"/>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B63" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C63" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D63" t="s">
         <v>82</v>
@@ -2632,30 +3022,34 @@
       <c r="E63" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:5">
+      <c r="F63"/>
+      <c r="G63" s="1"/>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" t="s">
+        <v>119</v>
+      </c>
+      <c r="B64" t="s">
+        <v>120</v>
+      </c>
+      <c r="C64" t="s">
         <v>121</v>
-      </c>
-      <c r="B64" t="s">
-        <v>122</v>
-      </c>
-      <c r="C64" t="s">
-        <v>123</v>
       </c>
       <c r="D64" t="s">
         <v>82</v>
       </c>
       <c r="E64" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>1</v>
+      </c>
+      <c r="F64"/>
+      <c r="G64" s="1"/>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" t="s">
-        <v>78</v>
+        <v>122</v>
       </c>
       <c r="B65" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C65" t="s">
         <v>124</v>
@@ -2664,6 +3058,1130 @@
         <v>82</v>
       </c>
       <c r="E65" t="b">
+        <v>1</v>
+      </c>
+      <c r="F65"/>
+      <c r="G65" s="1"/>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E66" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E67" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E68" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E69" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E70" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E71" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E72" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E73" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E74" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E75" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E76" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E77" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E78" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E79" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E80" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E81" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E82" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E83" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E84" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E85" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E86" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E87" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E88" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E89" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E90" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E91" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E92" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E93" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E94" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E95" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E96" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E97" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E98" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E99" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E100" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E101" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E102" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E103" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E104" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E105" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E106" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E107" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E108" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E109" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E110" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E111" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E112" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E113" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E114" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E115" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E116" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E117" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E118" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E119" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E120" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E121" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E122" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E123" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E124" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E125" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E126" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E127" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E128" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E129" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E130" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E131" s="2" t="b">
         <v>1</v>
       </c>
     </row>

--- a/mosip_master/xlsx/doc_type.xlsx
+++ b/mosip_master/xlsx/doc_type.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20361"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mosip\CIV\CODE\mosip-data\mosip_master\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MicroTech\IdeaProjects\mosip-data-mec\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A88A09B-DE78-443B-BBA3-C5ADB3163955}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{681A6638-D996-48F2-A76E-1EF051557790}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10296" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="37">
   <si>
     <t>lang_code</t>
   </si>
@@ -104,54 +104,6 @@
   </si>
   <si>
     <t>Certificat de relation</t>
-  </si>
-  <si>
-    <t>DOC011</t>
-  </si>
-  <si>
-    <t>Contrat de location</t>
-  </si>
-  <si>
-    <t>Contrat de location dadresse</t>
-  </si>
-  <si>
-    <t>DOC012</t>
-  </si>
-  <si>
-    <t>Certificat de résidence</t>
-  </si>
-  <si>
-    <t>Preuve de résidence</t>
-  </si>
-  <si>
-    <t>DOC013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Permis de conduire </t>
-  </si>
-  <si>
-    <t>DOC014</t>
-  </si>
-  <si>
-    <t>Certificat de mariage</t>
-  </si>
-  <si>
-    <t>DOC015</t>
-  </si>
-  <si>
-    <t>Livret ou relevé bancaire</t>
-  </si>
-  <si>
-    <t>DOC016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Facture d’électricité </t>
-  </si>
-  <si>
-    <t>DOC017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Facture d’eau </t>
   </si>
   <si>
     <t>DOC018</t>
@@ -542,22 +494,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="2" width="34.81640625" customWidth="1"/>
+    <col min="2" max="2" width="34.77734375" customWidth="1"/>
     <col min="3" max="3" width="30" customWidth="1"/>
-    <col min="4" max="4" width="74.26953125" customWidth="1"/>
-    <col min="5" max="5" width="8.81640625" customWidth="1"/>
+    <col min="4" max="4" width="74.21875" customWidth="1"/>
+    <col min="5" max="5" width="8.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="22" customHeight="1">
+    <row r="1" spans="1:5" ht="22.05" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -574,7 +526,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="21.5" customHeight="1">
+    <row r="2" spans="1:5" ht="21.45" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -591,7 +543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="21.5" customHeight="1">
+    <row r="3" spans="1:5" ht="21.45" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -636,7 +588,7 @@
         <v>14</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="E5" s="5" t="b">
         <v>1</v>
@@ -659,7 +611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="29">
+    <row r="7" spans="1:5" ht="28.8">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -670,7 +622,7 @@
         <v>19</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="E7" s="5" t="b">
         <v>1</v>
@@ -687,7 +639,7 @@
         <v>21</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="E8" s="5" t="b">
         <v>1</v>
@@ -704,7 +656,7 @@
         <v>23</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="E9" s="5" t="b">
         <v>1</v>
@@ -721,7 +673,7 @@
         <v>25</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="E10" s="5" t="b">
         <v>1</v>
@@ -738,7 +690,7 @@
         <v>27</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="E11" s="5" t="b">
         <v>1</v>
@@ -758,125 +710,6 @@
         <v>30</v>
       </c>
       <c r="E12" s="5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13" s="5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" s="5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E15" s="5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E16" s="5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E17" s="5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E18" s="5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E19" s="5" t="b">
         <v>1</v>
       </c>
     </row>

--- a/mosip_master/xlsx/doc_type.xlsx
+++ b/mosip_master/xlsx/doc_type.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6350"/>
+    <workbookView windowWidth="19200" windowHeight="6800"/>
   </bookViews>
   <sheets>
     <sheet name="4a1cc61e-b43d-4d06-b7bf-c479afd" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="97">
   <si>
     <t>code</t>
   </si>
@@ -221,39 +221,12 @@
     <t>PDS Card</t>
   </si>
   <si>
-    <t>DOC025</t>
-  </si>
-  <si>
-    <t>Medical card issued by the State Govt, CGHS, ECHS and ESIC</t>
-  </si>
-  <si>
-    <t>Medical card issued by the State Government, CGHS, ECHS and also ESIC</t>
-  </si>
-  <si>
     <t>DOC026</t>
   </si>
   <si>
     <t>Canteen card of the Army</t>
   </si>
   <si>
-    <t>DOC027</t>
-  </si>
-  <si>
-    <t>Family entitlement document</t>
-  </si>
-  <si>
-    <t>Any family entitlement document issued by any Central or State Government</t>
-  </si>
-  <si>
-    <t>DOC028</t>
-  </si>
-  <si>
-    <t>Birth Certificate</t>
-  </si>
-  <si>
-    <t>Registrar of Birth/municipal Corporation or any local government Birth Certificate</t>
-  </si>
-  <si>
     <t>EOP</t>
   </si>
   <si>
@@ -314,12 +287,6 @@
     <t>Licencia de conducir del solicitante</t>
   </si>
   <si>
-    <t>Tarjetas de identificación con fotografía emitidas por el Gobierno.</t>
-  </si>
-  <si>
-    <t>Tarjetas de identificación con fotografía de servicio emitidas por una PSU</t>
-  </si>
-  <si>
     <t>Licencia de Armas</t>
   </si>
   <si>
@@ -344,37 +311,13 @@
     <t>Tarjeta de racionamiento</t>
   </si>
   <si>
-    <t>Tarjeta de identificación con fotografía del servicio emitida por la PSU y dirección</t>
-  </si>
-  <si>
     <t>Factura de luz de los 3 meses anteriores</t>
   </si>
   <si>
-    <t>Factura de agua siempre que no tenga más de 3 meses de antigüedad.</t>
-  </si>
-  <si>
     <t>Tarjeta PDS</t>
   </si>
   <si>
-    <t>Tarjeta médica emitida por el Gobierno del Estado, CGHS, ECHS y ESIC</t>
-  </si>
-  <si>
-    <t>Tarjeta médica emitida por el Gobierno del Estado, CGHS, ECHS y también ESIC</t>
-  </si>
-  <si>
     <t>Tarjeta de comedor del ejército.</t>
-  </si>
-  <si>
-    <t>Documento de derecho familiar</t>
-  </si>
-  <si>
-    <t>Cualquier documento de derecho familiar emitido por cualquier gobierno central o estatal.</t>
-  </si>
-  <si>
-    <t>Certificado de nacimiento</t>
-  </si>
-  <si>
-    <t>Registrador de Nacimiento/Corporación Municipal o cualquier Certificado de Nacimiento del gobierno local</t>
   </si>
   <si>
     <t>Foto de expedición</t>
@@ -1546,17 +1489,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E61"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="8.54545454545454" customWidth="1"/>
-    <col min="2" max="2" width="25.9090909090909" customWidth="1"/>
-    <col min="3" max="3" width="25.7272727272727" customWidth="1"/>
+    <col min="2" max="2" width="58" customWidth="1"/>
+    <col min="3" max="3" width="73.9090909090909" customWidth="1"/>
+    <col min="4" max="4" width="36.9090909090909" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -2009,7 +1953,7 @@
         <v>64</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>7</v>
@@ -2020,13 +1964,13 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="C28" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>7</v>
@@ -2037,16 +1981,16 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>8</v>
@@ -2054,16 +1998,16 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>73</v>
+        <v>9</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>70</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>8</v>
@@ -2071,16 +2015,16 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>75</v>
+        <v>12</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>72</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>8</v>
@@ -2088,16 +2032,16 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>8</v>
@@ -2105,16 +2049,16 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>8</v>
@@ -2122,16 +2066,16 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>8</v>
@@ -2139,16 +2083,16 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="1" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>8</v>
@@ -2156,16 +2100,16 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>8</v>
@@ -2173,16 +2117,16 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="1" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>8</v>
@@ -2190,16 +2134,16 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="1" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>8</v>
@@ -2207,16 +2151,16 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>8</v>
@@ -2224,16 +2168,16 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>8</v>
@@ -2241,16 +2185,16 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="1" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>8</v>
@@ -2258,16 +2202,16 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="1" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>8</v>
@@ -2275,16 +2219,16 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="1" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>8</v>
@@ -2292,16 +2236,16 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="1" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>8</v>
@@ -2309,16 +2253,16 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="1" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>8</v>
@@ -2326,16 +2270,16 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="1" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>8</v>
@@ -2343,16 +2287,16 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="1" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>8</v>
@@ -2360,16 +2304,16 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="1" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>8</v>
@@ -2377,16 +2321,16 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="1" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>8</v>
@@ -2394,16 +2338,16 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>8</v>
@@ -2411,188 +2355,18 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E61" s="2" t="s">
         <v>8</v>
       </c>
     </row>
